--- a/biology/Zoologie/Cicadatra_serresi/Cicadatra_serresi.xlsx
+++ b/biology/Zoologie/Cicadatra_serresi/Cicadatra_serresi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicada serresi
 Cicadatra serresi est une espèce fossile d'insectes hémiptères de la famille des Cicadidae (cigales) et de la sous-famille des Cicadinae.
@@ -512,19 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cicadatra serresi est décrite en 1915 par le paléontologue et entomologiste belge Fernand Meunier (1868-1926) sous le protonyme Cicada serresi[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées en France, toutes les deux du Chattien ou Oligocène supérieur[2].
-La première vient de la localité de Puy-Saint-Jean dans le département du Puy-de-Dôme, décrite en 1936 par les paléontologues français Louis Émile Piton et Aimé Rudel (d)[3], la seconde collection vient d'Aix-en-Provence dans le département des Bouches-du-Rhône, conservée à l'institut géologique de Lyon, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[4]. L'holotype a été égaré par Fernand Meunier…[4].
-Renommage
-En 1937 le paléontologue français Nicolas Théobald (1903-1981) renomme l'espèce Cicadatra serresi[4],[2].
-Citations
-En 1939 Louis Émile Piton et Nicolas Théobald décrivent un nouveau fossile du Puy-de-Dôme[5],[2].
-En 2018 l'entomologiste australien Maxwell Sydney Moulds (d) confirme l'espèce dans la famille des Cicadidae[6],[2].
-Étymologie
-L'épithète spécifique serresi honore le géologue et naturaliste français Marcel de Serres (1780-1862).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cicadatra serresi est décrite en 1915 par le paléontologue et entomologiste belge Fernand Meunier (1868-1926) sous le protonyme Cicada serresi,.
 </t>
         </is>
       </c>
@@ -550,19 +554,246 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, deux collections de fossiles sont référencées en France, toutes les deux du Chattien ou Oligocène supérieur.
+La première vient de la localité de Puy-Saint-Jean dans le département du Puy-de-Dôme, décrite en 1936 par les paléontologues français Louis Émile Piton et Aimé Rudel (d), la seconde collection vient d'Aix-en-Provence dans le département des Bouches-du-Rhône, conservée à l'institut géologique de Lyon, décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981). L'holotype a été égaré par Fernand Meunier….
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937 le paléontologue français Nicolas Théobald (1903-1981) renomme l'espèce Cicadatra serresi,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1939 Louis Émile Piton et Nicolas Théobald décrivent un nouveau fossile du Puy-de-Dôme,.
+En 2018 l'entomologiste australien Maxwell Sydney Moulds (d) confirme l'espèce dans la famille des Cicadidae,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique serresi honore le géologue et naturaliste français Marcel de Serres (1780-1862).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[4],[note 1] : 
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
 « F. Meunier a figuré un bel exemplaire de Cicadidés venant de l'Oligocène d'Aix. L'original, appartenant à l'Institut de Géologie de Lyon, a été égaré par F. Meunier. Mais, heureusement, l'auteur a fait reproduire une photographie sur laquelle le parcours des nervures est assez visible. Nous reproduisons un claque de l'aile.
-Insecte de 20 mm de longueur, à corps noirâtre, à tarière proéminente, ♀, aux ailes transparentes. On observe huit cellules postérieures, contrairement à l'affirmation de F. Meunier qui n'en cite que sept[note 2]. L'aile a 20 mm de longueur. Les deux nervures longitudinales antérieures de l'élytre partent séparément de la cellule basale. La nervation est identique à celle du g. Cicadatra qui vit dans la région paléarctique et dans les Indes. Cicadatra sankana Dist. des Indes a des ailes transparentes comme l'exemplaire d'Aix ; la ♀ mesure aussi 20 mm. L'identité ne peut être affirmée, les détails de structure manquant pour l'insecte fossile. »[4].
-Dimensions
-L'insecte a une longueur totale de 20 mm et l'aile a aussi une longueur de 20 mm[4].
-Affinités
-« Cicadatra sankana Dist. des Indes a des ailes transparentes comme l'exemplaire d'Aix. »[4].
+Insecte de 20 mm de longueur, à corps noirâtre, à tarière proéminente, ♀, aux ailes transparentes. On observe huit cellules postérieures, contrairement à l'affirmation de F. Meunier qui n'en cite que sept[note 2]. L'aile a 20 mm de longueur. Les deux nervures longitudinales antérieures de l'élytre partent séparément de la cellule basale. La nervation est identique à celle du g. Cicadatra qui vit dans la région paléarctique et dans les Indes. Cicadatra sankana Dist. des Indes a des ailes transparentes comme l'exemplaire d'Aix ; la ♀ mesure aussi 20 mm. L'identité ne peut être affirmée, les détails de structure manquant pour l'insecte fossile. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'insecte a une longueur totale de 20 mm et l'aile a aussi une longueur de 20 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadatra_serresi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Cicadatra sankana Dist. des Indes a des ailes transparentes comme l'exemplaire d'Aix. ».
 </t>
         </is>
       </c>
